--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6327.558164909121</v>
+        <v>379653.4898945472</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6327.558164909121</v>
+        <v>379653.4898945472</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958115533.6939757</v>
+        <v>38302198.04099689</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8368.308650852909</v>
+        <v>787110.6502078716</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16736.61730170582</v>
+        <v>1574221.300415743</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25104.92595255873</v>
+        <v>2361331.950623615</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33861.49725144796</v>
+        <v>3123325.868764864</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42322.23868459421</v>
+        <v>3910436.518972736</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50782.98011774045</v>
+        <v>4697547.169180606</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59243.7215508867</v>
+        <v>5484657.819388475</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67704.46298403296</v>
+        <v>6271768.469596344</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76406.77090799455</v>
+        <v>7036613.88609877</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84869.47148977</v>
+        <v>7823483.817429487</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93330.21292291624</v>
+        <v>8610594.46763736</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101790.9543560625</v>
+        <v>9397705.117845237</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110251.6957892087</v>
+        <v>10184815.76805311</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118712.4372223549</v>
+        <v>10971926.41826099</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>127953.5122695233</v>
+        <v>11711746.38064445</v>
       </c>
     </row>
   </sheetData>
